--- a/medicine/Œil et vue/Œil_humain/Œil_humain.xlsx
+++ b/medicine/Œil et vue/Œil_humain/Œil_humain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%92il_humain</t>
+          <t>Œil_humain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'œil humain est l'organe de la vision de l'être humain ; il lui permet de capter la lumière, pour ensuite l'analyser et interagir avec son environnement. L'œil humain permet de distinguer les formes et les couleurs. La science qui étudie l'œil s'appelle l'ophtalmologie.
 L'un des grands défis de la technologie sera de fabriquer des yeux électroniques, capables d'égaler voire de dépasser les aptitudes des yeux du monde vivant pour, par exemple, remplacer l'œil d'une personne accidentée.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C5%92il_humain</t>
+          <t>Œil_humain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,25 +524,130 @@
           <t>Anatomie et physiologie de l'œil humain</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'œil humain est constitué d'un globe oculaire comportant :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'œil humain est constitué d'un globe oculaire comportant :
 sur sa partie antérieure, la cornée, qui est une calotte sphérique transparente ;
 sur le reste du globe, la sclère, ou sclérotique, qui forme le « blanc » de l'œil.
 Le globe oculaire mesure environ 2,5 cm de diamètre et a une masse de 8 grammes. Il est formé de trois enveloppes, ou tuniques, entourant une substance gélatineuse appelée le corps vitré. Les trois tuniques s'appellent la tunique externe, la tunique moyenne, et la tunique interne ; le corps vitré est principalement constitué d'eau et sert à maintenir la forme de l'œil.
 L'œil s'adapte en premier lieu à la lumière ambiante. L'être humain peut ainsi percevoir avec une sensibilité équivalente en plein soleil ou sous la lumière de la pleine lune, soit avec une intensité lumineuse 10 000 fois moindre. Une première adaptation provient de l'écartement de l'iris qui, en mode nocturne, peut atteindre une ouverture maximale de 7 mm pour des jeunes gens (maximum qui décroît à 4 mm avec l'âge).
-Tunique externe
-La sclérotique est la plus résistante des tuniques de l'œil ; elle le protège des dégâts mécaniques et soutient sa structure ; elle est percée en avant d'un orifice pour la cornée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Œil_humain</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92il_humain</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Anatomie et physiologie de l'œil humain</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Tunique externe</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La sclérotique est la plus résistante des tuniques de l'œil ; elle le protège des dégâts mécaniques et soutient sa structure ; elle est percée en avant d'un orifice pour la cornée.
 La conjonctive est une muqueuse transparente qui recouvre la partie antérieure de la sclérotique et qui produit un mucus lubrifiant.
-La cornée est une membrane transparente circulaire et bombée vers l'avant qui permet le passage des rayons lumineux, située au centre de la partie antérieure de la tunique de l'œil ; elle est en continuité avec la sclérotique et la conjonctive autour d'elle au niveau du limbe cornéen.
-Tunique moyenne
-La choroïde est une membrane vascularisée qui assure la nutrition de la rétine. Les cellules de cette tunique renferment un pigment, la mélanine, qui lui donne une couleur brun-foncé, afin que les rayons ne pénètrent que par la pupille. La choroïde forme en avant l'iris.
+La cornée est une membrane transparente circulaire et bombée vers l'avant qui permet le passage des rayons lumineux, située au centre de la partie antérieure de la tunique de l'œil ; elle est en continuité avec la sclérotique et la conjonctive autour d'elle au niveau du limbe cornéen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Œil_humain</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92il_humain</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Anatomie et physiologie de l'œil humain</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tunique moyenne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La choroïde est une membrane vascularisée qui assure la nutrition de la rétine. Les cellules de cette tunique renferment un pigment, la mélanine, qui lui donne une couleur brun-foncé, afin que les rayons ne pénètrent que par la pupille. La choroïde forme en avant l'iris.
 L'iris donne la couleur à l'œil. Il est percé en son centre par une ouverture circulaire, la pupille, qui se dilate ou se contracte selon l'intensité de la lumière, grâce à l'action des muscles lisses de l'iris.
 La pupille laisse passer la lumière. Le diamètre de son ouverture s'adapte automatiquement à l'intensité lumineuse perçue.
 Le corps ciliaire sécrète l'humeur aqueuse. Il contient un réseau de muscles qui permettent de modifier la courbure du cristallin afin de rendre la vision nette.
-Le cristallin est un petit disque fibreux, transparent et flexible qui permet de focaliser l'image sur la rétine en fonction de la distance.
-Tunique interne
-La rétine est la tunique sensible de l'œil. Elle est formée de cellules sensorielles, les cônes (vision diurne=jour) et les bâtonnets (vision nocturne=nuit), et de cellules nerveuses, les neurones.
+Le cristallin est un petit disque fibreux, transparent et flexible qui permet de focaliser l'image sur la rétine en fonction de la distance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Œil_humain</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92il_humain</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Anatomie et physiologie de l'œil humain</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tunique interne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La rétine est la tunique sensible de l'œil. Elle est formée de cellules sensorielles, les cônes (vision diurne=jour) et les bâtonnets (vision nocturne=nuit), et de cellules nerveuses, les neurones.
 La macula sorte de tache jaune, assure une motilité visuelle maximale, car elle est formée de nombreuses cellules visuelles.
 La tache aveugle, ou papille, est la zone où les fibres se réunissent pour former le nerf optique, qui ne renferme aucune cellule photosensible.
 La fovéa est une petite zone de la rétine sensible aux couleurs et sert pour la précision de la vision.
